--- a/biology/Botanique/A.P.Khokhr/A.P.Khokhr..xlsx
+++ b/biology/Botanique/A.P.Khokhr/A.P.Khokhr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Pavlovitch Khokhriakov (Андрей Павлович Хохряков), né le  2 septembre 1933 à Moscou et mort le 25 mai 1998 à Tver, est un botaniste soviétique et russe spécialiste de géobotanique, de botanique systématique et de biomorphologie. Il était membre correspondant de l'Académie des sciences naturelles de Russie de 1995 à sa mort.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kokhriakov naît à Moscou d'une famille issue avant la révolution de milieux de marchand (de la deuxième guilde). Il est évacué pendant la guerre avec sa famille dans l'Oural méridional et y collectionne ses premiers herbiers. À son retour à Moscou, il fait partie pendant son adolescence du cercle des jeunes biologistes du parc zoologique de Moscou et fait ses premières excursions dans la région.
 Il termine en 1957 la faculté de biologie de l'université de Moscou à la chaire de géobotanique. Il a participé à des excursions scientifiques pendant ses études en Russie centrale et au Caucase. C'est au cours d'une expédition en Transcaucasie occidentale qu'il découvre deux espèces nouvelles de Galanthus. Il épouse ensuite la botaniste Maïa Timofeïevna Mazourenko. Sa thèse de doctorat de troisième cycle présentée en 1964 porte sur la « caractéristique biomorphologique des espèces Eremurus selon leur origine, leur évolution et leur culture. »
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Эремурусы и их культура 1965 [Les espèces Eremurus et leur culture]
 Соматическая эволюция однодольных 1975 [Évolution somatique des monocotylédones
@@ -582,19 +598,124 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs espèces ont été nommées en son honneur:
-Genres
-Rhizomatopteris Khokhrjakovia Tzvelev
-Espèces
-Androsace khokhrjakovii Mazurenko
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces ont été nommées en son honneur:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rhizomatopteris Khokhrjakovia Tzvelev</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Androsace khokhrjakovii Mazurenko
 Astragalus khokhrjakovii Sytin et Podlech
 Salix khokhriakovii Skvortsov
 Saxifraga khokhrjakovii Zhmylev
-Vicia khokhriakovii Vorosch.
-Taxons
-Vaccinium uliginosum subsp. khokhrjakovii Mazurenko</t>
+Vicia khokhriakovii Vorosch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/A.P.Khokhr.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vaccinium uliginosum subsp. khokhrjakovii Mazurenko</t>
         </is>
       </c>
     </row>
